--- a/public/file/form.xlsx
+++ b/public/file/form.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nm\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D0955-78AE-43B6-9FCE-3C869F96C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="kHrCHsmIipAPz5/O1ygDm5C7iXRyd771oc+/lZaTkRU="/>
@@ -25,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>학년</t>
   </si>
@@ -42,7 +33,7 @@
     <t>성별</t>
   </si>
   <si>
-    <t>수업태도</t>
+    <t xml:space="preserve"> 수업참여도</t>
   </si>
   <si>
     <t>학습능력</t>
@@ -51,109 +42,29 @@
     <t>교우관계</t>
   </si>
   <si>
-    <t>여</t>
-  </si>
-  <si>
-    <t>변세경</t>
-  </si>
-  <si>
-    <t>남</t>
-  </si>
-  <si>
-    <t>김건희</t>
-  </si>
-  <si>
-    <t>김도경</t>
-  </si>
-  <si>
-    <t>김예성</t>
-  </si>
-  <si>
-    <t>엄홍재</t>
-  </si>
-  <si>
-    <t>장인호</t>
-  </si>
-  <si>
-    <t>정효담</t>
-  </si>
-  <si>
-    <t>정지후</t>
-  </si>
-  <si>
-    <t>김동진</t>
-  </si>
-  <si>
-    <t>김윤아</t>
-  </si>
-  <si>
-    <t>이예경</t>
-  </si>
-  <si>
-    <t>전재경</t>
-  </si>
-  <si>
-    <t>김소수</t>
-  </si>
-  <si>
-    <t>김한경</t>
-  </si>
-  <si>
-    <t>박우윤</t>
-  </si>
-  <si>
-    <t>최지우</t>
-  </si>
-  <si>
-    <t>김규우</t>
-  </si>
-  <si>
-    <t>김상우</t>
-  </si>
-  <si>
-    <t>차제우</t>
-  </si>
-  <si>
-    <t>홍수연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박예윤</t>
-  </si>
-  <si>
-    <t>공동윤</t>
-  </si>
-  <si>
-    <t>김이준</t>
-  </si>
-  <si>
-    <t>라우이준</t>
+    <t>분리배정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,17 +72,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -185,38 +90,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -406,29 +311,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="22" width="8.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="9.43"/>
+    <col customWidth="1" min="3" max="22" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,638 +353,281 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1"/>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -2054,13 +1597,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$F$28:$F$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>